--- a/dataset_images/volunteer_demographics.xlsx
+++ b/dataset_images/volunteer_demographics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chbcr\dataset_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68C5A1-FD7D-426A-806F-072E6F999D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C0210-9470-42A1-B18C-9465DF2EAE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF0718DF-31D5-4803-B295-75920CEC2857}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Age</t>
   </si>
@@ -80,9 +80,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -92,7 +89,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Unknwon</t>
+    <t>Not provided</t>
   </si>
 </sst>
 </file>
@@ -367,7 +364,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Unknown</c:v>
+                  <c:v>Not provided</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -753,7 +750,7 @@
                   <c:v>Female</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Unknwon</c:v>
+                  <c:v>Not provided</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2066,10 +2063,10 @@
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2432,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF5C81C-F3AB-4BB5-80DD-D63D04EAE15E}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>601</v>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>1986</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1950</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>736</v>
